--- a/statistics/HistoricalDistanceData/historical_distance/Q7570230-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q7570230-en.xlsx
@@ -31,6 +31,9 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Vaughan lowers count of homes deemed unsafe</t>
+  </si>
+  <si>
     <t>Special Weather Statements</t>
   </si>
   <si>
@@ -40,9 +43,6 @@
     <t>Ontario storms kill 1</t>
   </si>
   <si>
-    <t>Vaughan lowers count of homes deemed unsafe</t>
-  </si>
-  <si>
     <t>Tornado at Buckshot Lake, Ontario, August 20, 2009</t>
   </si>
   <si>
@@ -55,6 +55,9 @@
     <t>Province approves disaster declarations for communities hit by tornadoes</t>
   </si>
   <si>
+    <t>2009-08-21T16:00:00UTC</t>
+  </si>
+  <si>
     <t>2010-02-05T00:00:00UTC</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>2009-08-21T00:00:00UTC</t>
   </si>
   <si>
-    <t>2009-08-21T16:00:00UTC</t>
-  </si>
-  <si>
     <t>2009-08-20T18:58:38UTC</t>
   </si>
   <si>
@@ -79,6 +79,9 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>http://toronto.ctv.ca/servlet/an/local/CTVNews/20090821/storm_vaughan_090821/20090821/?hub=TorontoNewHome</t>
+  </si>
+  <si>
     <t>https://web.archive.org/web/20100212215158/http://www.weatheroffice.gc.ca/warnings/SWS_bulletins_e.html?prov=on</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>http://www.cbc.ca/news/canada/toronto/ontario-storms-kill-1-1.811386</t>
-  </si>
-  <si>
-    <t>http://toronto.ctv.ca/servlet/an/local/CTVNews/20090821/storm_vaughan_090821/20090821/?hub=TorontoNewHome</t>
   </si>
   <si>
     <t>http://highwaysandhailstones.com/tornado-map/august-20-2009-buckshot-lake/</t>
@@ -502,7 +502,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -519,7 +519,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>233</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -536,7 +536,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
